--- a/data/trans_orig/P44-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>15201</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8717</v>
+        <v>9139</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24152</v>
+        <v>24835</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05691495287412183</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03263917684996918</v>
+        <v>0.03421792699389391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0904326337669429</v>
+        <v>0.09298971311819929</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -764,19 +764,19 @@
         <v>16307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9708</v>
+        <v>9062</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25004</v>
+        <v>24559</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05441316045374522</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03239150062757894</v>
+        <v>0.03023641968898166</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08343085382779993</v>
+        <v>0.08194615297875249</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -785,19 +785,19 @@
         <v>31508</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21043</v>
+        <v>21298</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43940</v>
+        <v>43302</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05559206527907091</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03712740384687929</v>
+        <v>0.0375785229747738</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07752584668561652</v>
+        <v>0.07640018465739466</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>251876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>242925</v>
+        <v>242242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>258360</v>
+        <v>257938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9430850471258782</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9095673662330571</v>
+        <v>0.9070102868818005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9673608231500309</v>
+        <v>0.965782073006106</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>262</v>
@@ -835,19 +835,19 @@
         <v>283389</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>274692</v>
+        <v>275137</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>289988</v>
+        <v>290634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9455868395462548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9165691461722</v>
+        <v>0.9180538470212476</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.967608499372421</v>
+        <v>0.9697635803110185</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>496</v>
@@ -856,19 +856,19 @@
         <v>535265</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>522833</v>
+        <v>523471</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>545730</v>
+        <v>545475</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9444079347209291</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9224741533143835</v>
+        <v>0.9235998153426054</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9628725961531208</v>
+        <v>0.9624214770252262</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>28501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18271</v>
+        <v>18951</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40691</v>
+        <v>41521</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08593921766614979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05509167005840828</v>
+        <v>0.05714409898091238</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1226966252265436</v>
+        <v>0.1251976954435961</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -981,19 +981,19 @@
         <v>37386</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26878</v>
+        <v>27089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51527</v>
+        <v>52646</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09447023204801487</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0679185706302651</v>
+        <v>0.06845142991125826</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.130203160851803</v>
+        <v>0.1330300077797994</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -1002,19 +1002,19 @@
         <v>65887</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51053</v>
+        <v>51526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83816</v>
+        <v>85384</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09058063233901982</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07018754677753662</v>
+        <v>0.07083665377686717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1152293284608437</v>
+        <v>0.1173853019674327</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>303140</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>290950</v>
+        <v>290120</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>313370</v>
+        <v>312690</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9140607823338502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8773033747734564</v>
+        <v>0.874802304556404</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9449083299415917</v>
+        <v>0.9428559010190877</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>326</v>
@@ -1052,19 +1052,19 @@
         <v>358358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>344217</v>
+        <v>343098</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368866</v>
+        <v>368655</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9055297679519851</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8697968391481974</v>
+        <v>0.8669699922202014</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9320814293697349</v>
+        <v>0.9315485700887421</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>598</v>
@@ -1073,19 +1073,19 @@
         <v>661498</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>643569</v>
+        <v>642001</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>676332</v>
+        <v>675859</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9094193676609802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8847706715391563</v>
+        <v>0.8826146980325674</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9298124532224636</v>
+        <v>0.9291633462231331</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>28624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19303</v>
+        <v>18955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41213</v>
+        <v>41626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1167849714258081</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07875577754861231</v>
+        <v>0.07733576915884678</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1681467856437018</v>
+        <v>0.1698328787143846</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1198,19 +1198,19 @@
         <v>27406</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17091</v>
+        <v>18433</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38766</v>
+        <v>40209</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09043782301237213</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0563984260576287</v>
+        <v>0.06082849301056179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1279257923312129</v>
+        <v>0.1326884177080016</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -1219,19 +1219,19 @@
         <v>56030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40728</v>
+        <v>41352</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73124</v>
+        <v>72153</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1022190256839333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07430334640147816</v>
+        <v>0.07544176584418108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1334046822191601</v>
+        <v>0.1316340310273335</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>216476</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>203887</v>
+        <v>203474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225797</v>
+        <v>226145</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.883215028574192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8318532143562979</v>
+        <v>0.8301671212856154</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9212442224513876</v>
+        <v>0.9226642308411526</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -1269,19 +1269,19 @@
         <v>275628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>264268</v>
+        <v>262825</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>285943</v>
+        <v>284601</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9095621769876279</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8720742076687872</v>
+        <v>0.8673115822919983</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9436015739423713</v>
+        <v>0.9391715069894381</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>435</v>
@@ -1290,19 +1290,19 @@
         <v>492104</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>475010</v>
+        <v>475981</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>507406</v>
+        <v>506782</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8977809743160667</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8665953177808398</v>
+        <v>0.8683659689726665</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9256966535985217</v>
+        <v>0.9245582341558187</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>41431</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30019</v>
+        <v>28736</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57301</v>
+        <v>55750</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1182960657047404</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08571119500163539</v>
+        <v>0.08205014095952838</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1636098625984165</v>
+        <v>0.1591799638516947</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1415,19 +1415,19 @@
         <v>28962</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19604</v>
+        <v>19147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41117</v>
+        <v>40741</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06175200819246399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04179966331102528</v>
+        <v>0.04082508812383308</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08766843932587895</v>
+        <v>0.08686602670365143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -1436,19 +1436,19 @@
         <v>70393</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55003</v>
+        <v>53896</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88390</v>
+        <v>87488</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08592507523004557</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0671395181087318</v>
+        <v>0.06578826377044218</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1078929798937123</v>
+        <v>0.1067921803135589</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>308799</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>292929</v>
+        <v>294480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320211</v>
+        <v>321494</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8817039342952596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8363901374015833</v>
+        <v>0.8408200361483054</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9142888049983645</v>
+        <v>0.9179498590404717</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>415</v>
@@ -1486,19 +1486,19 @@
         <v>440044</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>427889</v>
+        <v>428265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>449402</v>
+        <v>449859</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.938247991807536</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.912331560674121</v>
+        <v>0.9131339732963486</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9582003366889748</v>
+        <v>0.9591749118761669</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>698</v>
@@ -1507,19 +1507,19 @@
         <v>748843</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>730846</v>
+        <v>731748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>764233</v>
+        <v>765340</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9140749247699544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8921070201062878</v>
+        <v>0.8932078196864416</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9328604818912682</v>
+        <v>0.9342117362295579</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>113757</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91431</v>
+        <v>93705</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134591</v>
+        <v>137880</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0952695920274603</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07657237801550149</v>
+        <v>0.07847691551996094</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1127179516349354</v>
+        <v>0.115472612613822</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -1632,19 +1632,19 @@
         <v>110061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89927</v>
+        <v>89627</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133601</v>
+        <v>133429</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07500015745312491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06128007987945324</v>
+        <v>0.06107576446360016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09104119094736039</v>
+        <v>0.09092387653659173</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>198</v>
@@ -1653,19 +1653,19 @@
         <v>223818</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>194688</v>
+        <v>195558</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>254328</v>
+        <v>254806</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08409368807800115</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07314892411682634</v>
+        <v>0.07347567468646375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09555706054319056</v>
+        <v>0.09573680453268132</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>1080292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1059458</v>
+        <v>1056169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1102618</v>
+        <v>1100344</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9047304079725397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8872820483650646</v>
+        <v>0.8845273873861781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9234276219844987</v>
+        <v>0.9215230844800391</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1249</v>
@@ -1703,19 +1703,19 @@
         <v>1357419</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1333879</v>
+        <v>1334051</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1377553</v>
+        <v>1377853</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9249998425468751</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9089588090526395</v>
+        <v>0.909076123463408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9387199201205467</v>
+        <v>0.9389242355363996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2227</v>
@@ -1724,19 +1724,19 @@
         <v>2437710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2407200</v>
+        <v>2406722</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2466840</v>
+        <v>2465970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9159063119219989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9044429394568095</v>
+        <v>0.9042631954673187</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9268510758831736</v>
+        <v>0.9265243253135363</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>31702</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22588</v>
+        <v>22154</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44488</v>
+        <v>45523</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1087386725729026</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0774786639139679</v>
+        <v>0.07599010244179236</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1525975482144106</v>
+        <v>0.1561458752335563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2089,19 +2089,19 @@
         <v>27716</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18461</v>
+        <v>17907</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39623</v>
+        <v>40221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08583592164761904</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05717151291661263</v>
+        <v>0.05545695273750113</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1227120411478695</v>
+        <v>0.1245625102394573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -2110,19 +2110,19 @@
         <v>59418</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45421</v>
+        <v>45660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76196</v>
+        <v>78358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0967028940815389</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07392302482569391</v>
+        <v>0.07431205631817958</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.124008823382343</v>
+        <v>0.1275286044842564</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>259838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>247052</v>
+        <v>246017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268952</v>
+        <v>269386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8912613274270974</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8474024517855893</v>
+        <v>0.8438541247664438</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.922521336086032</v>
+        <v>0.9240098975582076</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>273</v>
@@ -2160,19 +2160,19 @@
         <v>295181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283274</v>
+        <v>282676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304436</v>
+        <v>304990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.914164078352381</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8772879588521304</v>
+        <v>0.8754374897605425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9428284870833873</v>
+        <v>0.9445430472624986</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>529</v>
@@ -2181,19 +2181,19 @@
         <v>555020</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>538242</v>
+        <v>536080</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569017</v>
+        <v>568778</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9032971059184611</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8759911766176568</v>
+        <v>0.8724713955157436</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9260769751743061</v>
+        <v>0.9256879436818196</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>40300</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29579</v>
+        <v>28832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53519</v>
+        <v>52415</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09929912399831974</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07288301065395497</v>
+        <v>0.07104352646296397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1318722130994771</v>
+        <v>0.1291515660680485</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -2306,19 +2306,19 @@
         <v>34695</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24593</v>
+        <v>23830</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51054</v>
+        <v>51370</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07408258849503137</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05251315376924669</v>
+        <v>0.05088408611458214</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1090146927696314</v>
+        <v>0.1096886196421328</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -2327,19 +2327,19 @@
         <v>74994</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59738</v>
+        <v>58372</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92361</v>
+        <v>92974</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08578962724692948</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06833760698489068</v>
+        <v>0.06677487742936804</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.105655754036097</v>
+        <v>0.1063569687471814</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>365541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352322</v>
+        <v>353426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376262</v>
+        <v>377009</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9007008760016803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8681277869005231</v>
+        <v>0.8708484339319515</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.927116989346045</v>
+        <v>0.928956473537036</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>375</v>
@@ -2377,19 +2377,19 @@
         <v>433631</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>417272</v>
+        <v>416956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>443733</v>
+        <v>444496</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9259174115049686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8909853072303686</v>
+        <v>0.8903113803578671</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9474868462307533</v>
+        <v>0.9491159138854178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>721</v>
@@ -2398,19 +2398,19 @@
         <v>799173</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>781806</v>
+        <v>781193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>814429</v>
+        <v>815795</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9142103727530705</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8943442459639033</v>
+        <v>0.8936430312528189</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9316623930151098</v>
+        <v>0.9332251225706321</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>32674</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22919</v>
+        <v>22933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45100</v>
+        <v>45023</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1150893471453051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08072840152842152</v>
+        <v>0.08077869993904042</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1588576493596663</v>
+        <v>0.1585871568088822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -2523,19 +2523,19 @@
         <v>20302</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12376</v>
+        <v>12248</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30085</v>
+        <v>30693</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0683791415381418</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04168413307988881</v>
+        <v>0.04125409157092121</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1013292042219924</v>
+        <v>0.1033770404824814</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -2544,19 +2544,19 @@
         <v>52976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40898</v>
+        <v>39912</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68727</v>
+        <v>70228</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09121159796617631</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07041668137422392</v>
+        <v>0.06871843692673725</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1183306228220634</v>
+        <v>0.1209155394333817</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>251229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238803</v>
+        <v>238880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>260984</v>
+        <v>260970</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8849106528546949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8411423506403337</v>
+        <v>0.8414128431911179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9192715984715786</v>
+        <v>0.9192213000609596</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>236</v>
@@ -2594,19 +2594,19 @@
         <v>276599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266816</v>
+        <v>266208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>284525</v>
+        <v>284653</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9316208584618582</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8986707957780076</v>
+        <v>0.8966229595175187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9583158669201112</v>
+        <v>0.9587459084290789</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>466</v>
@@ -2615,19 +2615,19 @@
         <v>527828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>512077</v>
+        <v>510576</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>539906</v>
+        <v>540892</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9087884020338237</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8816693771779368</v>
+        <v>0.8790844605666184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9295833186257761</v>
+        <v>0.9312815630732628</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>60192</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46958</v>
+        <v>47232</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75071</v>
+        <v>76608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1439178063808482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1122742694604901</v>
+        <v>0.1129293281838371</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1794933130260712</v>
+        <v>0.1831666288399663</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -2740,19 +2740,19 @@
         <v>36587</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25583</v>
+        <v>25909</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50300</v>
+        <v>52354</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07206624036232546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05039101281682147</v>
+        <v>0.05103330761822092</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09907697075713133</v>
+        <v>0.1031228652064614</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -2761,19 +2761,19 @@
         <v>96779</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76892</v>
+        <v>77823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117834</v>
+        <v>116952</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1045217322188659</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08304380993186627</v>
+        <v>0.08404859480322781</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1272614518614328</v>
+        <v>0.1263090848958289</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>358049</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343170</v>
+        <v>341633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371283</v>
+        <v>371009</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8560821936191518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8205066869739288</v>
+        <v>0.8168333711600334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.88772573053951</v>
+        <v>0.8870706718161627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>400</v>
@@ -2811,19 +2811,19 @@
         <v>471095</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>457382</v>
+        <v>455328</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>482099</v>
+        <v>481773</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9279337596376745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9009230292428689</v>
+        <v>0.8968771347935387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9496089871831785</v>
+        <v>0.9489666923817791</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>760</v>
@@ -2832,19 +2832,19 @@
         <v>829144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>808089</v>
+        <v>808971</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>849031</v>
+        <v>848100</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8954782677811342</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8727385481385672</v>
+        <v>0.8736909151041711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9169561900681337</v>
+        <v>0.9159514051967724</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>164868</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>143016</v>
+        <v>141537</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190000</v>
+        <v>190243</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1178027334112104</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1021887436950379</v>
+        <v>0.1011323362788182</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1357601099904893</v>
+        <v>0.1359336836774408</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -2957,19 +2957,19 @@
         <v>119300</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96321</v>
+        <v>98869</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>141941</v>
+        <v>142221</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07475816981290084</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06035873117363024</v>
+        <v>0.06195570227470121</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08894612539775527</v>
+        <v>0.0891214802093461</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>262</v>
@@ -2978,19 +2978,19 @@
         <v>284168</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>252487</v>
+        <v>253205</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>322302</v>
+        <v>318844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09487012887310584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08429354105189769</v>
+        <v>0.08453321314773669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1076014436264689</v>
+        <v>0.1064468507647087</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>1234658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1209526</v>
+        <v>1209283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1256510</v>
+        <v>1257989</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8821972665887895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.864239890009511</v>
+        <v>0.8640663163225593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8978112563049623</v>
+        <v>0.8988676637211821</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1284</v>
@@ -3028,19 +3028,19 @@
         <v>1476506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1453865</v>
+        <v>1453585</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1499485</v>
+        <v>1496937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9252418301870992</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9110538746022447</v>
+        <v>0.9108785197906539</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9396412688263697</v>
+        <v>0.938044297725299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2476</v>
@@ -3049,19 +3049,19 @@
         <v>2711164</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2673030</v>
+        <v>2676488</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2742845</v>
+        <v>2742127</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9051298711268941</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8923985563735312</v>
+        <v>0.8935531492352913</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9157064589481023</v>
+        <v>0.9154667868522635</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>102195</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87305</v>
+        <v>86239</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119192</v>
+        <v>118870</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.309690684653817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2645673875105675</v>
+        <v>0.2613371589607605</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3611975430308887</v>
+        <v>0.3602215047687521</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>209</v>
@@ -3414,19 +3414,19 @@
         <v>106458</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94583</v>
+        <v>94912</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118549</v>
+        <v>118915</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2820667496715729</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2506035892824099</v>
+        <v>0.2514740980351406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3141011182663068</v>
+        <v>0.3150728847930173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>339</v>
@@ -3435,19 +3435,19 @@
         <v>208654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>189621</v>
+        <v>190034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>229766</v>
+        <v>227851</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2949526604433572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2680475138959806</v>
+        <v>0.2686317199748183</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3247967660274895</v>
+        <v>0.3220904040065838</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>227797</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>210800</v>
+        <v>211122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>242687</v>
+        <v>243753</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.690309315346183</v>
+        <v>0.6903093153461831</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6388024569691115</v>
+        <v>0.6397784952312479</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7354326124894323</v>
+        <v>0.7386628410392395</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>573</v>
@@ -3485,19 +3485,19 @@
         <v>270964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258873</v>
+        <v>258507</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282839</v>
+        <v>282510</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7179332503284271</v>
+        <v>0.717933250328427</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6858988817336933</v>
+        <v>0.6849271152069827</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.74939641071759</v>
+        <v>0.74852590196486</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>877</v>
@@ -3506,19 +3506,19 @@
         <v>498760</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>477648</v>
+        <v>479563</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>517793</v>
+        <v>517380</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.705047339556643</v>
+        <v>0.7050473395566429</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6752032339725105</v>
+        <v>0.6779095959934163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7319524861040193</v>
+        <v>0.7313682800251817</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>153970</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>135367</v>
+        <v>135684</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>173914</v>
+        <v>172489</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3571602960100791</v>
+        <v>0.357160296010079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3140067206143096</v>
+        <v>0.3147420744752056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4034218254367138</v>
+        <v>0.40011847304336</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>233</v>
@@ -3631,19 +3631,19 @@
         <v>140333</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125343</v>
+        <v>125800</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155401</v>
+        <v>155538</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2970831986087981</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2653501596327422</v>
+        <v>0.2663176920820976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3289813960059286</v>
+        <v>0.3292725200466231</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>420</v>
@@ -3652,19 +3652,19 @@
         <v>294303</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>269296</v>
+        <v>271054</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>318134</v>
+        <v>317014</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3257494942853864</v>
+        <v>0.3257494942853865</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2980704103630352</v>
+        <v>0.3000161412300476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3521269146920724</v>
+        <v>0.3508866249358999</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>277126</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>257182</v>
+        <v>258607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>295729</v>
+        <v>295412</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6428397039899209</v>
+        <v>0.642839703989921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5965781745632862</v>
+        <v>0.5998815269566395</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6859932793856903</v>
+        <v>0.6852579255247941</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>584</v>
@@ -3702,19 +3702,19 @@
         <v>332036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316968</v>
+        <v>316831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>347026</v>
+        <v>346569</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7029168013912018</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6710186039940711</v>
+        <v>0.670727479953377</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7346498403672577</v>
+        <v>0.7336823079179025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>908</v>
@@ -3723,19 +3723,19 @@
         <v>609162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>585331</v>
+        <v>586451</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>634169</v>
+        <v>632411</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6742505057146135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6478730853079275</v>
+        <v>0.6491133750641003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7019295896369649</v>
+        <v>0.6999838587699524</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>119104</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102631</v>
+        <v>101678</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137057</v>
+        <v>136956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3258231940650533</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2807606470911694</v>
+        <v>0.2781523769334646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3749374646002829</v>
+        <v>0.374660407858681</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -3848,19 +3848,19 @@
         <v>85086</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74024</v>
+        <v>72174</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98168</v>
+        <v>97570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2521662355645464</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2193818683619439</v>
+        <v>0.2139010064702173</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.290935638822979</v>
+        <v>0.2891658194341449</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>266</v>
@@ -3869,19 +3869,19 @@
         <v>204190</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182169</v>
+        <v>183804</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>224727</v>
+        <v>226088</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2904683222713429</v>
+        <v>0.2904683222713428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2591434593867901</v>
+        <v>0.261468432025965</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3196837925744079</v>
+        <v>0.3216202343369858</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>246443</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228490</v>
+        <v>228591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262916</v>
+        <v>263869</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6741768059349468</v>
+        <v>0.6741768059349467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6250625353997172</v>
+        <v>0.625339592141319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7192393529088307</v>
+        <v>0.7218476230665354</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>395</v>
@@ -3919,19 +3919,19 @@
         <v>252334</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>239252</v>
+        <v>239850</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>263396</v>
+        <v>265246</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7478337644354537</v>
+        <v>0.7478337644354536</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7090643611770209</v>
+        <v>0.7108341805658551</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.780618131638056</v>
+        <v>0.7860989935297829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>648</v>
@@ -3940,19 +3940,19 @@
         <v>498777</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>478240</v>
+        <v>476879</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>520798</v>
+        <v>519163</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7095316777286571</v>
+        <v>0.709531677728657</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6803162074255918</v>
+        <v>0.6783797656630143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7408565406132095</v>
+        <v>0.738531567974035</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>200195</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>181227</v>
+        <v>182250</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>218787</v>
+        <v>218396</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4283719644696192</v>
+        <v>0.4283719644696193</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3877849501434826</v>
+        <v>0.389973472238536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4681540261052922</v>
+        <v>0.4673183618175032</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>323</v>
@@ -4065,19 +4065,19 @@
         <v>198125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>180743</v>
+        <v>179890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216399</v>
+        <v>215702</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3511125279638286</v>
+        <v>0.3511125279638287</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3203089236875361</v>
+        <v>0.318797458290826</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3834974581836684</v>
+        <v>0.382262790337277</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>590</v>
@@ -4086,19 +4086,19 @@
         <v>398320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>372557</v>
+        <v>373067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>424826</v>
+        <v>423428</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3861122878921813</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3611380969954436</v>
+        <v>0.3616331992915243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4118056253792206</v>
+        <v>0.4104502396626957</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>267144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248552</v>
+        <v>248943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>286112</v>
+        <v>285089</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5716280355303809</v>
+        <v>0.571628035530381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.531845973894708</v>
+        <v>0.5326816381824968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6122150498565175</v>
+        <v>0.6100265277614639</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>616</v>
@@ -4136,19 +4136,19 @@
         <v>366153</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347879</v>
+        <v>348576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383535</v>
+        <v>384388</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6488874720361713</v>
+        <v>0.6488874720361714</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6165025418163319</v>
+        <v>0.6177372096627229</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6796910763124638</v>
+        <v>0.6812025417091739</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>958</v>
@@ -4157,19 +4157,19 @@
         <v>633298</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>606792</v>
+        <v>608190</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>659061</v>
+        <v>658551</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6138877121078188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5881943746207794</v>
+        <v>0.5895497603373044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6388619030045564</v>
+        <v>0.6383668007084756</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>575464</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>541970</v>
+        <v>542010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>613190</v>
+        <v>610919</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3610249966994436</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3400116420467126</v>
+        <v>0.3400366221814116</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3846923059837695</v>
+        <v>0.3832675934239288</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>900</v>
@@ -4282,19 +4282,19 @@
         <v>530002</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>502056</v>
+        <v>502066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>561226</v>
+        <v>557958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3026008882889175</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2866450142394491</v>
+        <v>0.2866508430085106</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3204276778498423</v>
+        <v>0.3185619539871126</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1615</v>
@@ -4303,19 +4303,19 @@
         <v>1105467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1061428</v>
+        <v>1061900</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1151576</v>
+        <v>1150593</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3304375485872013</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3172737264085895</v>
+        <v>0.3174150669117179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3442201189820771</v>
+        <v>0.343926444099361</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>1018510</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>980784</v>
+        <v>983055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1052004</v>
+        <v>1051964</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6389750033005565</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6153076940162308</v>
+        <v>0.6167324065760709</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6599883579532875</v>
+        <v>0.6599633778185883</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2168</v>
@@ -4353,19 +4353,19 @@
         <v>1221487</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1190263</v>
+        <v>1193531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1249433</v>
+        <v>1249423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6973991117110826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6795723221501578</v>
+        <v>0.6814380460128876</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.713354985760551</v>
+        <v>0.7133491569914894</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3391</v>
@@ -4374,19 +4374,19 @@
         <v>2239996</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2193887</v>
+        <v>2194870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2284035</v>
+        <v>2283563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6695624514127988</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6557798810179229</v>
+        <v>0.6560735559006391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6827262735914105</v>
+        <v>0.6825849330882822</v>
       </c>
     </row>
     <row r="18">
